--- a/excel front.xlsx
+++ b/excel front.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\reactjs\do-an-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E407900-3EE9-4806-B4EB-CAEFF68FA6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A8112-545C-4B27-BF78-D07B3F32805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1686CBB6-6B78-4FB1-B4B4-4B0DC9E24695}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -481,19 +480,19 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="33.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -521,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -529,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2.1</v>
       </c>
@@ -543,7 +542,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -557,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -571,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.4</v>
       </c>
@@ -585,9 +584,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="102.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -595,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3.1</v>
       </c>
@@ -609,13 +608,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="120.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -623,7 +622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -637,7 +636,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4.2</v>
       </c>
@@ -651,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4.3</v>
       </c>
@@ -665,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="110.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -679,8 +678,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
